--- a/Assessments/Exam-Msft-AZ-220-Self-Assessment-Build5Nines.xlsx
+++ b/Assessments/Exam-Msft-AZ-220-Self-Assessment-Build5Nines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chris/Documents/GitHub/exam-assessments/Assessments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A07A49-05F6-D641-8CF0-411F179ADF13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722922FE-5437-364A-AE5A-ADF7F03A2CAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="22900" windowWidth="22460" windowHeight="22700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,9 +134,6 @@
     <t>Know a Little</t>
   </si>
   <si>
-    <t>Exam AZ-220: Azure IoT Developer</t>
-  </si>
-  <si>
     <t>On-Demand Training Course</t>
   </si>
   <si>
@@ -432,6 +429,9 @@
   </si>
   <si>
     <t>Self Assessment last updated January 9, 2019</t>
+  </si>
+  <si>
+    <t>Exam AZ-220: Microsoft Azure IoT Developer</t>
   </si>
 </sst>
 </file>
@@ -673,67 +673,7 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="210">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="204">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -3054,7 +2994,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3112,12 +3052,12 @@
     </row>
     <row r="12" spans="1:2" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3130,7 +3070,7 @@
     </row>
     <row r="16" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="8">
         <f>'Self Assessment'!D2</f>
@@ -3139,7 +3079,7 @@
     </row>
     <row r="17" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="8">
         <f>'Self Assessment'!D16</f>
@@ -3148,7 +3088,7 @@
     </row>
     <row r="18" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="8">
         <f>'Self Assessment'!D37</f>
@@ -3157,7 +3097,7 @@
     </row>
     <row r="19" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="8">
         <f>'Self Assessment'!D53</f>
@@ -3166,7 +3106,7 @@
     </row>
     <row r="20" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="8">
         <f>'Self Assessment'!D67</f>
@@ -3175,7 +3115,7 @@
     </row>
     <row r="21" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="8">
         <f>'Self Assessment'!D81</f>
@@ -3210,17 +3150,17 @@
     </row>
     <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -3260,38 +3200,38 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="cellIs" dxfId="209" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="203" priority="12" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="cellIs" dxfId="208" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="11" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="cellIs" dxfId="207" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="201" priority="10" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="cellIs" dxfId="206" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="200" priority="9" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="cellIs" dxfId="205" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="8" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="cellIs" dxfId="204" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="198" priority="7" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
@@ -3341,7 +3281,7 @@
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="11">
         <f>SUM(D3:D15)/3</f>
@@ -3350,7 +3290,7 @@
     </row>
     <row r="3" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="8">
         <f>(VLOOKUP(D4,List_Categories,2,FALSE)+VLOOKUP(D5,List_Categories,2,FALSE)+VLOOKUP(D6,List_Categories,2,FALSE)+VLOOKUP(D7,List_Categories,2,FALSE))/4</f>
@@ -3359,7 +3299,7 @@
     </row>
     <row r="4" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -3367,7 +3307,7 @@
     </row>
     <row r="5" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -3375,7 +3315,7 @@
     </row>
     <row r="6" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -3383,7 +3323,7 @@
     </row>
     <row r="7" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C7" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -3391,7 +3331,7 @@
     </row>
     <row r="8" spans="1:4" s="18" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8">
@@ -3402,7 +3342,7 @@
     <row r="9" spans="1:4" s="18" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -3411,7 +3351,7 @@
     <row r="10" spans="1:4" s="18" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -3420,7 +3360,7 @@
     <row r="11" spans="1:4" s="18" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -3429,7 +3369,7 @@
     <row r="12" spans="1:4" s="18" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -3437,7 +3377,7 @@
     </row>
     <row r="13" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="8">
         <f>(VLOOKUP(D14,List_Categories,2,FALSE)+VLOOKUP(D15,List_Categories,2,FALSE))/2</f>
@@ -3446,7 +3386,7 @@
     </row>
     <row r="14" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C14" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -3454,7 +3394,7 @@
     </row>
     <row r="15" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C15" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -3462,7 +3402,7 @@
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3473,7 +3413,7 @@
     </row>
     <row r="17" spans="2:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="8">
         <f>(VLOOKUP(D18,List_Categories,2,FALSE)+VLOOKUP(D19,List_Categories,2,FALSE)+VLOOKUP(D20,List_Categories,2,FALSE)+VLOOKUP(D21,List_Categories,2,FALSE))/4</f>
@@ -3482,7 +3422,7 @@
     </row>
     <row r="18" spans="2:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -3490,7 +3430,7 @@
     </row>
     <row r="19" spans="2:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C19" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -3498,7 +3438,7 @@
     </row>
     <row r="20" spans="2:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -3506,7 +3446,7 @@
     </row>
     <row r="21" spans="2:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C21" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -3514,7 +3454,7 @@
     </row>
     <row r="22" spans="2:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="8">
         <f>(VLOOKUP(D23,List_Categories,2,FALSE)+VLOOKUP(D24,List_Categories,2,FALSE)+VLOOKUP(D25,List_Categories,2,FALSE))/3</f>
@@ -3523,7 +3463,7 @@
     </row>
     <row r="23" spans="2:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C23" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
@@ -3531,7 +3471,7 @@
     </row>
     <row r="24" spans="2:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
@@ -3539,7 +3479,7 @@
     </row>
     <row r="25" spans="2:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C25" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
@@ -3547,7 +3487,7 @@
     </row>
     <row r="26" spans="2:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="8">
         <f>(VLOOKUP(D27,List_Categories,2,FALSE)+VLOOKUP(D28,List_Categories,2,FALSE)+VLOOKUP(D29,List_Categories,2,FALSE)+VLOOKUP(D30,List_Categories,2,FALSE))/4</f>
@@ -3556,7 +3496,7 @@
     </row>
     <row r="27" spans="2:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
@@ -3564,7 +3504,7 @@
     </row>
     <row r="28" spans="2:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C28" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
@@ -3572,7 +3512,7 @@
     </row>
     <row r="29" spans="2:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C29" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
         <v>26</v>
@@ -3580,7 +3520,7 @@
     </row>
     <row r="30" spans="2:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C30" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
@@ -3588,7 +3528,7 @@
     </row>
     <row r="31" spans="2:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D31" s="8">
         <f>(VLOOKUP(D32,List_Categories,2,FALSE)+VLOOKUP(D33,List_Categories,2,FALSE)+VLOOKUP(D34,List_Categories,2,FALSE)+VLOOKUP(D35,List_Categories,2,FALSE)+VLOOKUP(D36,List_Categories,2,FALSE))/5</f>
@@ -3597,7 +3537,7 @@
     </row>
     <row r="32" spans="2:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C32" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
         <v>26</v>
@@ -3605,7 +3545,7 @@
     </row>
     <row r="33" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C33" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
         <v>26</v>
@@ -3613,7 +3553,7 @@
     </row>
     <row r="34" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C34" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
         <v>26</v>
@@ -3621,7 +3561,7 @@
     </row>
     <row r="35" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C35" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
@@ -3629,7 +3569,7 @@
     </row>
     <row r="36" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C36" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
@@ -3637,7 +3577,7 @@
     </row>
     <row r="37" spans="1:4" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -3648,7 +3588,7 @@
     </row>
     <row r="38" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="8">
         <f>(VLOOKUP(D39,List_Categories,2,FALSE)+VLOOKUP(D40,List_Categories,2,FALSE)+VLOOKUP(D41,List_Categories,2,FALSE)+VLOOKUP(D42,List_Categories,2,FALSE)+VLOOKUP(D43,List_Categories,2,FALSE)+VLOOKUP(D44,List_Categories,2,FALSE))/6</f>
@@ -3657,7 +3597,7 @@
     </row>
     <row r="39" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C39" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D39" t="s">
         <v>26</v>
@@ -3665,7 +3605,7 @@
     </row>
     <row r="40" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C40" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
         <v>26</v>
@@ -3673,7 +3613,7 @@
     </row>
     <row r="41" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C41" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
         <v>26</v>
@@ -3681,7 +3621,7 @@
     </row>
     <row r="42" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C42" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D42" t="s">
         <v>26</v>
@@ -3689,7 +3629,7 @@
     </row>
     <row r="43" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C43" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
         <v>26</v>
@@ -3697,7 +3637,7 @@
     </row>
     <row r="44" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C44" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" t="s">
         <v>26</v>
@@ -3705,7 +3645,7 @@
     </row>
     <row r="45" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D45" s="8">
         <f>(VLOOKUP(D46,List_Categories,2,FALSE)+VLOOKUP(D47,List_Categories,2,FALSE)+VLOOKUP(D48,List_Categories,2,FALSE))/3</f>
@@ -3714,7 +3654,7 @@
     </row>
     <row r="46" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C46" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D46" t="s">
         <v>26</v>
@@ -3722,7 +3662,7 @@
     </row>
     <row r="47" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C47" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s">
         <v>26</v>
@@ -3730,7 +3670,7 @@
     </row>
     <row r="48" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C48" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
         <v>26</v>
@@ -3738,7 +3678,7 @@
     </row>
     <row r="49" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D49" s="8">
         <f>(VLOOKUP(D50,List_Categories,2,FALSE)+VLOOKUP(D51,List_Categories,2,FALSE)+VLOOKUP(D52,List_Categories,2,FALSE))/3</f>
@@ -3747,7 +3687,7 @@
     </row>
     <row r="50" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C50" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D50" t="s">
         <v>26</v>
@@ -3755,7 +3695,7 @@
     </row>
     <row r="51" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C51" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D51" t="s">
         <v>26</v>
@@ -3765,7 +3705,7 @@
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D52" t="s">
         <v>26</v>
@@ -3773,7 +3713,7 @@
     </row>
     <row r="53" spans="1:4" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -3784,7 +3724,7 @@
     </row>
     <row r="54" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D54" s="8">
         <f>(VLOOKUP(D55,List_Categories,2,FALSE)+VLOOKUP(D56,List_Categories,2,FALSE)+VLOOKUP(D57,List_Categories,2,FALSE)+VLOOKUP(D58,List_Categories,2,FALSE))/4</f>
@@ -3793,7 +3733,7 @@
     </row>
     <row r="55" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C55" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D55" t="s">
         <v>26</v>
@@ -3801,7 +3741,7 @@
     </row>
     <row r="56" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C56" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D56" t="s">
         <v>26</v>
@@ -3809,7 +3749,7 @@
     </row>
     <row r="57" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C57" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D57" t="s">
         <v>26</v>
@@ -3817,7 +3757,7 @@
     </row>
     <row r="58" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C58" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D58" t="s">
         <v>26</v>
@@ -3825,7 +3765,7 @@
     </row>
     <row r="59" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D59" s="8">
         <f>(VLOOKUP(D60,List_Categories,2,FALSE)+VLOOKUP(D61,List_Categories,2,FALSE)+VLOOKUP(D62,List_Categories,2,FALSE))/3</f>
@@ -3834,7 +3774,7 @@
     </row>
     <row r="60" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C60" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D60" t="s">
         <v>26</v>
@@ -3842,7 +3782,7 @@
     </row>
     <row r="61" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C61" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D61" t="s">
         <v>26</v>
@@ -3850,7 +3790,7 @@
     </row>
     <row r="62" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C62" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D62" t="s">
         <v>26</v>
@@ -3858,7 +3798,7 @@
     </row>
     <row r="63" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D63" s="8">
         <f>(VLOOKUP(D64,List_Categories,2,FALSE)+VLOOKUP(D65,List_Categories,2,FALSE)+VLOOKUP(D66,List_Categories,2,FALSE))/3</f>
@@ -3867,7 +3807,7 @@
     </row>
     <row r="64" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C64" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D64" t="s">
         <v>26</v>
@@ -3875,7 +3815,7 @@
     </row>
     <row r="65" spans="1:4" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C65" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D65" t="s">
         <v>26</v>
@@ -3885,7 +3825,7 @@
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D66" t="s">
         <v>26</v>
@@ -3893,7 +3833,7 @@
     </row>
     <row r="67" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -3905,7 +3845,7 @@
     <row r="68" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
       <c r="B68" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="22">
@@ -3917,7 +3857,7 @@
       <c r="A69" s="21"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D69" s="23" t="s">
         <v>26</v>
@@ -3927,7 +3867,7 @@
       <c r="A70" s="21"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D70" s="23" t="s">
         <v>26</v>
@@ -3937,7 +3877,7 @@
       <c r="A71" s="21"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D71" s="23" t="s">
         <v>26</v>
@@ -3946,7 +3886,7 @@
     <row r="72" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="21"/>
       <c r="B72" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="22">
@@ -3958,7 +3898,7 @@
       <c r="A73" s="21"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D73" s="23" t="s">
         <v>26</v>
@@ -3968,7 +3908,7 @@
       <c r="A74" s="21"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D74" s="23" t="s">
         <v>26</v>
@@ -3978,7 +3918,7 @@
       <c r="A75" s="21"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D75" s="23" t="s">
         <v>26</v>
@@ -3988,7 +3928,7 @@
       <c r="A76" s="21"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D76" s="23" t="s">
         <v>26</v>
@@ -3997,7 +3937,7 @@
     <row r="77" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="21"/>
       <c r="B77" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="22">
@@ -4009,7 +3949,7 @@
       <c r="A78" s="21"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D78" s="23" t="s">
         <v>26</v>
@@ -4019,7 +3959,7 @@
       <c r="A79" s="21"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D79" s="23" t="s">
         <v>26</v>
@@ -4029,7 +3969,7 @@
       <c r="A80" s="21"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D80" s="23" t="s">
         <v>26</v>
@@ -4037,7 +3977,7 @@
     </row>
     <row r="81" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -4049,7 +3989,7 @@
     <row r="82" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="21"/>
       <c r="B82" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="22">
@@ -4061,7 +4001,7 @@
       <c r="A83" s="21"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D83" s="23" t="s">
         <v>26</v>
@@ -4071,7 +4011,7 @@
       <c r="A84" s="21"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D84" s="23" t="s">
         <v>26</v>
@@ -4081,7 +4021,7 @@
       <c r="A85" s="21"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D85" s="23" t="s">
         <v>26</v>
@@ -4090,7 +4030,7 @@
     <row r="86" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="21"/>
       <c r="B86" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="22">
@@ -4102,7 +4042,7 @@
       <c r="A87" s="21"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D87" s="23" t="s">
         <v>26</v>
@@ -4112,7 +4052,7 @@
       <c r="A88" s="21"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D88" s="23" t="s">
         <v>26</v>
@@ -4122,7 +4062,7 @@
       <c r="A89" s="21"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D89" s="23" t="s">
         <v>26</v>
@@ -4132,7 +4072,7 @@
       <c r="A90" s="21"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D90" s="23" t="s">
         <v>26</v>
@@ -4142,7 +4082,7 @@
       <c r="A91" s="21"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D91" s="23" t="s">
         <v>26</v>
@@ -4151,7 +4091,7 @@
     <row r="92" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="21"/>
       <c r="B92" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="22">
@@ -4163,7 +4103,7 @@
       <c r="A93" s="21"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D93" s="23" t="s">
         <v>26</v>
@@ -4173,7 +4113,7 @@
       <c r="A94" s="21"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D94" s="23" t="s">
         <v>26</v>
@@ -4183,7 +4123,7 @@
       <c r="A95" s="21"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D95" s="23" t="s">
         <v>26</v>
@@ -4194,1010 +4134,1010 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="203" priority="954" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="197" priority="954" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="202" priority="953" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="953" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="201" priority="952" operator="between">
+    <cfRule type="cellIs" dxfId="195" priority="952" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="200" priority="870" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="194" priority="870" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="199" priority="869" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="869" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="198" priority="868" operator="between">
+    <cfRule type="cellIs" dxfId="192" priority="868" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="197" priority="885" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="191" priority="885" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="196" priority="884" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="884" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="195" priority="883" operator="between">
+    <cfRule type="cellIs" dxfId="189" priority="883" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="194" priority="879" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="188" priority="879" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="193" priority="878" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="878" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="192" priority="877" operator="between">
+    <cfRule type="cellIs" dxfId="186" priority="877" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="191" priority="867" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="185" priority="867" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="190" priority="866" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="866" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="189" priority="865" operator="between">
+    <cfRule type="cellIs" dxfId="183" priority="865" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="188" priority="831" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="182" priority="831" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="187" priority="830" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="830" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="186" priority="829" operator="between">
+    <cfRule type="cellIs" dxfId="180" priority="829" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="185" priority="813" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="179" priority="813" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="184" priority="812" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="812" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="183" priority="811" operator="between">
+    <cfRule type="cellIs" dxfId="177" priority="811" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="182" priority="834" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="176" priority="834" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="181" priority="833" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="833" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="180" priority="832" operator="between">
+    <cfRule type="cellIs" dxfId="174" priority="832" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="179" priority="807" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="173" priority="807" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="178" priority="806" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="806" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="177" priority="805" operator="between">
+    <cfRule type="cellIs" dxfId="171" priority="805" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="176" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="252" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="175" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="251" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="174" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="250" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="173" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="249" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="172" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="248" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="171" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="247" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="170" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="219" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="169" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="218" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="168" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="217" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="167" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="216" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="166" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="215" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="165" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="214" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="164" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="210" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="163" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="209" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="162" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="208" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="161" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="207" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="160" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="206" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="159" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="205" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="158" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="204" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="157" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="203" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="156" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="202" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="155" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="213" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="154" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="212" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="153" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="211" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="152" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="195" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="151" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="194" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="150" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="193" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="149" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="192" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="148" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="191" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="147" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="190" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D19">
-    <cfRule type="cellIs" dxfId="146" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="189" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D19">
-    <cfRule type="cellIs" dxfId="145" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="188" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D19">
-    <cfRule type="cellIs" dxfId="144" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="187" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="143" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="163" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="142" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="165" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="141" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="164" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="140" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="160" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="139" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="162" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="138" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="161" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="137" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="157" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="136" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="159" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="135" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="158" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="134" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="142" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="133" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="144" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="132" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="143" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="131" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="139" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="130" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="141" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="129" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="140" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="128" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="108" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="127" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="107" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="126" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="106" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="125" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="135" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="124" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="134" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="123" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="133" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="122" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="132" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="121" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="131" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="120" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="130" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="119" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="129" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="118" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="128" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="117" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="127" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="116" priority="126" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="126" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="115" priority="125" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="125" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="114" priority="124" operator="between">
+    <cfRule type="cellIs" dxfId="108" priority="124" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="113" priority="123" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="123" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="112" priority="122" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="122" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="111" priority="121" operator="between">
+    <cfRule type="cellIs" dxfId="105" priority="121" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="110" priority="120" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="120" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="109" priority="119" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="119" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="108" priority="118" operator="between">
+    <cfRule type="cellIs" dxfId="102" priority="118" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="107" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="111" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="106" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="110" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="105" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="109" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="104" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="117" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="103" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="116" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="102" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="115" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="101" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="79" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="100" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="81" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="99" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="80" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="98" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="103" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="97" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="105" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="96" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="104" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="100" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="94" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="102" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="93" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="101" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="92" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="97" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="91" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="99" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="90" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="98" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="cellIs" dxfId="89" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="96" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="cellIs" dxfId="88" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="95" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="cellIs" dxfId="87" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="94" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="86" priority="93" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="93" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="85" priority="92" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="92" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="84" priority="91" operator="between">
+    <cfRule type="cellIs" dxfId="78" priority="91" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="83" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="60" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="82" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="59" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="81" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="58" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="80" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="87" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="79" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="86" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="78" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="85" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="77" priority="84" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="84" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="76" priority="83" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="83" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="75" priority="82" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="82" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="74" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="63" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="73" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="62" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="72" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="61" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="71" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="78" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="70" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="77" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="69" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="76" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="68" priority="75" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="75" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="67" priority="74" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="74" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="66" priority="73" operator="between">
+    <cfRule type="cellIs" dxfId="60" priority="73" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="65" priority="72" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="72" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="64" priority="71" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="71" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="63" priority="70" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="70" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="62" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="69" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="61" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="68" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="60" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="67" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="59" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="66" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="58" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="65" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="57" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="64" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="56" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="42" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="55" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="41" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="54" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="40" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="53" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="57" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="56" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="51" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="55" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="50" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="33" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="49" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="32" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="48" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="31" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="51" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="50" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="45" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="49" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="48" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="47" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="46" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="45" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="44" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="43" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="38" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="37" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="36" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="38" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="37" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="36" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="34" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="30" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="27" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="25" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
       <formula>"No Idea"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
       <formula>"Know a Little"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
       <formula>"Know Well"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>0.5</formula>
       <formula>0.7</formula>
     </cfRule>
